--- a/experiments/fluorescence_protein/input_ecoli2/input_TagR.xlsx
+++ b/experiments/fluorescence_protein/input_ecoli2/input_TagR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOFKV\PycharmProjects\proseqteleporter\experiments\fluorescence_protein\input_ecoli2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOFKV\PycharmProjects\seqTeleporter\experiments\fluorescence_protein\input_ecoli2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CCCD19-CC05-4188-960F-A81029C93196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E97CA88-E70F-44A0-A7D6-933102C2E157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="768" xr2:uid="{92EDD624-EB72-41A1-9013-2A2A4F6AE6A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="768" activeTab="5" xr2:uid="{92EDD624-EB72-41A1-9013-2A2A4F6AE6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_guide" sheetId="2" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D59F6F-6069-48DB-AB49-B626F76C5552}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2075,14 +2075,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB98E8-6985-45FF-840E-89664040D491}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.7265625" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
